--- a/flash_cards/math/6/flash_data1.xlsx
+++ b/flash_cards/math/6/flash_data1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Св-во числовых рядов : принцип локализации</t>
   </si>
@@ -62,6 +62,33 @@
   </si>
   <si>
     <t xml:space="preserve">Th: Признак Коши для знакопостоянных рядов. Док-во</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Д'Аламбера для числовых рядов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Интегральный-признак Коши-Маклорена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лемма: Преобразование Абеля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Дирихле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Абеля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема: Признак Лейбница</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Престановка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема о перестановке абсолютно сходящегося ряда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теорема Римана</t>
   </si>
 </sst>
 </file>
@@ -158,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,15 +266,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
